--- a/gelenler.xlsx
+++ b/gelenler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K016419\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA22A4AA-727B-485F-B720-22A4177AB845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5C48D-E824-4A2C-AADE-4F3660B8C0AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{657177B2-91B7-4357-987A-BAB176E3C956}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
   <si>
     <t>Takı</t>
   </si>
@@ -250,9 +250,6 @@
     <t>berkan buruk</t>
   </si>
   <si>
-    <t>Kaniye Özsoy</t>
-  </si>
-  <si>
     <t>vedat gürel</t>
   </si>
   <si>
@@ -632,6 +629,27 @@
   </si>
   <si>
     <t>bilezik+çeyrek+5i biyerde</t>
+  </si>
+  <si>
+    <t>Akif Elcan</t>
+  </si>
+  <si>
+    <t>diyarbakır telekom</t>
+  </si>
+  <si>
+    <t>Anayurt Komşu</t>
+  </si>
+  <si>
+    <t>Şerefiye</t>
+  </si>
+  <si>
+    <t>Yusuf-Kaniye Özsoy</t>
+  </si>
+  <si>
+    <t>Özgür Demir</t>
+  </si>
+  <si>
+    <t>Caner Kar</t>
   </si>
 </sst>
 </file>
@@ -1062,19 +1080,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76043FBC-7D88-49DE-9E3C-4410B71166A3}">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1085,16 +1103,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1109,17 +1129,17 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G12" si="0">COUNTIF(C:C,F3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1021</v>
       </c>
       <c r="I3">
         <f>H3*G3</f>
-        <v>14294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1144,11 +1164,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C5" s="1">
         <v>500</v>
       </c>
@@ -1167,16 +1189,18 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C6" s="1">
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1190,16 +1214,18 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C7" s="1">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1213,7 +1239,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>16540</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1252,26 +1278,28 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1654</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>62852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>66160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1285,7 +1313,7 @@
         <v>13232</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1310,16 +1338,18 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C12" s="1">
         <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1333,7 +1363,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1372,7 @@
         <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13">
         <f>SUM(C:C)</f>
@@ -1353,7 +1383,7 @@
         <v>24810</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14">
         <f>COUNTIF(C:C,F14)</f>
@@ -1379,7 +1409,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1397,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,14 +1436,14 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16">
         <f>COUNTIF(C:C,F16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,19 +1455,19 @@
       </c>
       <c r="I17">
         <f>SUM(I3:I14)</f>
-        <v>159219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>163548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1496,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1477,7 +1507,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1506,16 +1536,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C26" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1533,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1544,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1562,7 +1594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1623,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1602,7 +1634,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1622,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1672,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1649,7 +1681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -1660,14 +1692,14 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -1678,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1689,7 +1721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -1700,7 +1732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -1729,16 +1761,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -1749,7 +1781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1760,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -1769,1039 +1801,1061 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C66" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C71" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C87" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C121" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C125" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2824,11 +2878,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">4|TCMB-ISO-DG|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%EMAILADDRESS%">semih.tereci@tcmb.gov.tr</XMLData>
+<XMLData TextToDisplay="%HOSTNAME%">db193119.tcmb.gov.tr</XMLData>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2836,11 +2890,11 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%HOSTNAME%">db193119.tcmb.gov.tr</XMLData>
+<XMLData TextToDisplay="%EMAILADDRESS%">semih.tereci@tcmb.gov.tr</XMLData>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">4|TCMB-ISO-DG|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2850,13 +2904,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD40EB7-B6FD-40C6-8CBF-FD4623365ABE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE91427B-DB16-47AB-9094-3FDE864D701E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87967068-9B84-4716-89B6-F0AFC9DC82FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F252CCC3-E885-427A-86B9-806D563F2DAB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2868,13 +2922,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F252CCC3-E885-427A-86B9-806D563F2DAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87967068-9B84-4716-89B6-F0AFC9DC82FC}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD064732-9052-4250-8E53-70DFB15C8F6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD40EB7-B6FD-40C6-8CBF-FD4623365ABE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>